--- a/Мінка кванти.xlsx
+++ b/Мінка кванти.xlsx
@@ -182,13 +182,13 @@
     <t>13</t>
   </si>
   <si>
-    <t>Доведіть, що власні функції будя-якого ермітового оператора, кі відповідають різним власним значенням, є ортогональними між собою.
+    <t>Доведіть, що власні функції будь-якого ермітового оператора, кі відповідають різним власним значенням, є ортогональними між собою.
 \begin{equation*}
 \int \psi^{*}_n (q) \psi_m (q) dq = \delta _{n,m}.
 \end{equation*}</t>
   </si>
   <si>
-    <t>Рзглянемо спочатку дискретний невироджений спектр оператора $\hat{A}$:
+    <t>Рзглянемо дискретний невироджений спектр оператора $\hat{A}$:
 \begin{gather*} 
 \hat{A} \psi _n = A_n \psi _n, \\
 \hat{A} \psi _m = A_m \psi _m, \\
@@ -327,7 +327,7 @@
   <si>
     <t>\begin{enumerate}
 \item Розв'язуємо рівняння Шредінгера - знаходимо $\psi (x,y,z)$. 
-\item Шукаємо власні функції $\psi _g$ і власні значення $G$ оператора $\hat{G}$.
+\item Шукаємо власні функції $\psi _g$ і власні значення $G$ оператора $\hat{G}$, який відповідає фіз. величині, що нас цікавить.
 \item Знаходимо $\overline{G} = \int \psi ^{*}(\vec{r}, t) \hat{G} \psi (\vec{r}, t) d\vec{r}$.
 \end{enumerate}</t>
   </si>
@@ -467,7 +467,7 @@
   <si>
     <t>\begin{gather*}
 \text{Якщо } \hat{H}(\vec{r}+\delta \vec{r}, t) = \hat{H}(\vec{r}, t) \rightarrow [\hat{H},\hat{p}]=0\\
-\frac{d \hat{p}}{d t} = \frac{\partial \hat{p}}{\partial t} + {\hat{H}, \hat{p}} = 0  
+\frac{d \hat{p}}{d t} = \frac{\partial \hat{p}}{\partial t} + \{\hat{H}, \hat{p}\} = 0  
 \end{gather*}</t>
   </si>
   <si>
@@ -479,7 +479,7 @@
   <si>
     <t>\begin{gather*}
 \text{Якщо } \hat{H}(\vec{r}+\delta \varphi [\vec{n} \times \vec{r}], t) = \hat{H}(\vec{r}, t)  \\
-\rightarrow [\hat{H},\boldsymbol{\hat{L} n}]=0 \rightarrow \frac{d \boldsymbol{\hat{L} n}}{d t}
+\rightarrow [\hat{H},\boldsymbol{\hat{L} n}]=0 \rightarrow \frac{d \boldsymbol{\hat{L} n}}{d t} = 0
 \end{gather*}</t>
   </si>
   <si>
@@ -612,7 +612,7 @@
   </si>
   <si>
     <t>Хвильова функція не залежить від часу.
-$$\hat{G}(t)=\hat{S}(t)\hat{G}(t)\hat{S}^{-1}$$</t>
+$$\hat{A}(t)=\hat{S}^+(t)\hat{A}\hat{S}(t) = e^{\frac{i}{\hbar} \hat{H} t} \hat{A} e^{- \frac{i}{\hbar} \hat{H} t}$$</t>
   </si>
   <si>
     <t>39б</t>
@@ -624,8 +624,8 @@
     <t>{</t>
   </si>
   <si>
-    <t>$$\hat{V}_{int}=e^{\frac{iH_{0}t}{\hbar}}\hat{V}e^{-\frac{iH_{0}t}{\hbar}}$$
-$$\psi_{int}=e^{\frac{iH_{0}t}{\hbar}}\psi_{Sl}$$</t>
+    <t>$$\hat{V}_{int}=e^{\frac{i\hat{H}_{0}t}{\hbar}}\hat{V}e^{-\frac{i\hat{H}_{0}t}{\hbar}}$$
+$$\psi_{int}=e^{\frac{i\hat{H}_{0}t}{\hbar}}\psi_{Sl}$$</t>
   </si>
   <si>
     <t>40а</t>
@@ -789,7 +789,7 @@
     <t>50</t>
   </si>
   <si>
-    <t xml:space="preserve">Записати і прокоментувати вирази для спектру атому Водню і хвильової функції $ \Psi $
+    <t xml:space="preserve">Записати і прокоментувати вирази для спектру атому водню і хвильової функції $ \psi $. \\
 Як пов'язані між собою квантові числа, від яких залежать спектр та хвильова функція? Чи є виродженим спектр? Яка кратність виродження? </t>
   </si>
   <si>
@@ -797,9 +797,9 @@
 E_n = -\frac{me^4}{2 \hbar^2 n^2}
 \end{equation*}
 Хвильова функція
-\begin{equation*}
-\psi _{n,l,m}(r, \theta, \varphi)=\sqrt{\frac{(n-l-1)!}{2n(n+l)!}}(\frac{2}{na_B})^{\frac{3}{2}}exp(-\frac{r}{na_B})(\frac{2r}{na_B})^{l}L^{2l+1} _n-l-1 (\frac{2r}{na_B}) Y_{l,m}(\theta, \varphi)
-\end{equation*}
+\begin{gather*}
+\psi _{n,l,m}(r, \theta, \varphi)= C_{nl} R_{nl}(r) Y^m_l(\theta, \varphi) \\= \sqrt{\frac{(n-l-1)!}{2n(n+l)!}}(\frac{2}{na_B})^{\frac{3}{2}} e^{-\frac{r}{na_B}} (\frac{2r}{na_B})^{l}L^{2l+1} _{n-l-1} (\frac{2r}{na_B}) Y_{l,m}(\theta, \varphi)
+\end{gather*}
 Квантові числа
 \begin{gather*}
 n=1, 2, 3, \ldots \\
@@ -918,7 +918,7 @@
     <t>54а</t>
   </si>
   <si>
-    <t>З'ясувати чи є самоспряженими оператори $ \frac{d}{dx} $</t>
+    <t>З'ясувати чи є самоспряженим оператор $ \frac{d}{dx} $</t>
   </si>
   <si>
     <t>\begin{gather*}
@@ -931,7 +931,7 @@
     <t>54б</t>
   </si>
   <si>
-    <t>З'ясувати чи є самоспряженими оператори $ i \frac{d}{dx} $</t>
+    <t>З'ясувати чи є самоспряженим оператор $ i \frac{d}{dx} $</t>
   </si>
   <si>
     <t>\begin{gather*}
@@ -981,12 +981,12 @@
 \begin{gather*}
 \psi(q,t)=\sum_n C_n(t)e^{-\frac{i}{\hbar}E^{(0)}_nt}\psi^{(0)}_n(q) \\
 V_{mn}(t)=\int\psi^{(0)*}_m(q)\hat{V}(t)\psi^{(0)}_n(q)dq\\
-\tilde{V}(t)=e^{i\omega_{mn}(t)}V_{mn}(T)\\
+\tilde{V}_{mn}(t)=e^{i\omega_{mn}(t)}V_{mn}(T)\\
 C^{(1)}_m(t)=\frac{1}{i\hbar}\int^t_{t_0}\tilde{V_{mi}}(t')dt'
 \end{gather*} 
 Ймовірність переходу визначається як $W_{i\rightarrow f}=|C^{(1)}_f|^2$ . Якщо враховувати всі поправки, то $C_f= \langle f|\hat{S}(t, t_0)|i \rangle $, де 
 \begin{equation*}
-\hat{S}(t_1, t_0)=1+\frac{1}{i\hbar}\int^{t_1}_{t_0}\tilde{V}(t')dt'+(\frac{1}{i\hbar})^2\int^{t_1}_{t_0}\tilde{V}(t1)\tilde{V}(t'')dt''+ \ldots
+\hat{S}(t_1, t_0)=1+\frac{1}{i\hbar}\int^{t_1}_{t_0}\tilde{V}(t')dt'+(\frac{1}{i\hbar})^2\int^{t_1}_{t_0} \int^{t'}_{t_0}\tilde{V}(t')\tilde{V}(t'') dt' dt''+ \ldots
 \end{equation*}</t>
   </si>
   <si>
@@ -1101,7 +1101,7 @@
   </si>
   <si>
     <t>\begin{equation*}
- G(\overrightarrow{r},\overrightarrow{r}')=-\frac{1}{4\pi|\overrightarrow{r}-\overrightarrow{r}'|}e^{\pm ik|\overrightarrow{r}-\overrightarrow{r}'|]}
+ G(\overrightarrow{r},\overrightarrow{r}')=-\frac{1}{4\pi|\overrightarrow{r}-\overrightarrow{r}'|}e^{\pm ik|\overrightarrow{r}-\overrightarrow{r}'|}
 \end{equation*}</t>
   </si>
   <si>
@@ -1160,7 +1160,7 @@
   </si>
   <si>
     <t>\begin{equation*}
-	\sigma = \Bigg(\frac{m}{2 \pi \hbar^2}\Bigg)^2 \frac{N}{k} \int \; d\Omega \int \; d\omega |\nu_g|^2 k' S(q, \omega)
+        \sigma = \Bigg(\frac{m}{2 \pi \hbar^2}\Bigg)^2 \frac{N}{k} \int \; d\Omega \int \; d\omega |\nu_g|^2 k' S(q, \omega)
 \end{equation*}</t>
   </si>
   <si>
@@ -1348,7 +1348,7 @@
   </si>
   <si>
     <t>\begin{equation*}
-i \hbar \frac{\delta \psi}{\delta t} = (\hat{\boldsymbol{\alpha}} \hat{\boldsymbol{p}}) \psi + \hat{\beta} m c^2 \psi
+i \hbar \frac{\delta \psi}{\delta t} = (\hat{\boldsymbol{\alpha}} \hat{\boldsymbol{p}}) c  \psi + \hat{\beta} m c^2 \psi
 \end{equation*}
 Описує ферміони зі спіном 1/2.</t>
   </si>
@@ -1388,9 +1388,9 @@
   </si>
   <si>
     <t>\begin{equation*}
-\frac{\delta}{\delta t} (\psi^+ \psi) = - c \overline{\nabla} (\psi^+ \hat{\alpha} \psi)
+\frac{\partial}{\partial t} (\psi^+ \psi) = - c \vec{\nabla} (\psi^+ \hat{\alpha} \psi)
 \end{equation*}
-$\psi^+ \psi = \rho$, $ - c \psi^+ \hat{\alpha} \psi = \overline{j}$</t>
+$\psi^+ \psi = \rho$, $ - c \psi^+ \hat{\alpha} \psi = \vec{j}$</t>
   </si>
   <si>
     <t>Записавши рiвняння Дiрака в представленнi Дiрака i перейти до кiрального представлення та представлення Майорани</t>
@@ -1432,8 +1432,8 @@
   <si>
     <t>\begin{gather*}
 p_{\mu} \gamma^{\mu} = 0\\
-p_{\mu} = (p_0 \gamma_0, \overline{p} \overline{\gamma})\\
-\gamma^{\mu} = (\gamma^0 , \overline{\gamma})
+p_{\mu} = (p_0 \gamma_0, \vec{p} \vec{\gamma})\\
+\gamma^{\mu} = (\gamma^0 , \vec{\gamma})
 \end{gather*}</t>
   </si>
   <si>
@@ -1500,7 +1500,7 @@
   <si>
     <t xml:space="preserve">Підстановкою:
 \begin{equation*}
-\psi(q,t) = \exp^{- \frac{i}{\hbar} E t} \psi (q)
+\psi(q,t) = e^{- \frac{i}{\hbar} E t} \psi (q)
 \end{equation*}
 переходимо до рівняння:
 \begin{gather*}
@@ -1675,7 +1675,7 @@
 яких фiзичних наслiдкiв вiн приводить.</t>
   </si>
   <si>
-    <t>Нормальний ефект Зеємана - розщеплення електронних рівнів у сильному магнітному полі на значно більшу відстань ніж відстань між рівнями тонкої структури, відстані між рівнями одинакові.
+    <t>Нормальний ефект Зеємана - розщеплення енергетичних рівнів у сильному магнітному полі на значно більшу відстань ніж відстань між рівнями тонкої структури, відстані між рівнями одинакові.
 Аномальний ефект Зеємана - розщеплення тонкої структури у слабкому магнітному полі - відстані між рівнями неоднакові і залежать від фактора Ланде.</t>
   </si>
 </sst>
